--- a/models/Regression/analysing results/analysing_results.xlsx
+++ b/models/Regression/analysing results/analysing_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acking\Desktop\project\Dam-Hazard-Analysis-by-Ai\models\Regression\analysing results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19CDA78-85D3-4E3F-A5BE-6857A7A5699E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4D2EAC-8CEA-4BEF-8E02-AB594A7EDAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="33">
   <si>
     <t>Model Output</t>
   </si>
@@ -114,6 +114,27 @@
   <si>
     <t>model5</t>
   </si>
+  <si>
+    <t>model6</t>
+  </si>
+  <si>
+    <t>Regression (Random Forest)</t>
+  </si>
+  <si>
+    <t>model7</t>
+  </si>
+  <si>
+    <t>Regression (Tuned RF)</t>
+  </si>
+  <si>
+    <t>model8</t>
+  </si>
+  <si>
+    <t>model9</t>
+  </si>
+  <si>
+    <t>lightGBM</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +144,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +163,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,18 +208,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -568,10 +738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AD5FB2-A811-4CAB-AB88-5CA8C86D3B49}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,31 +1559,31 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="4">
         <v>0.91526007652282715</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="4">
         <v>8.422184944152832</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="4">
         <v>1.337885856628418E-2</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="4">
         <v>-2.4862270946650611E-2</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="4">
         <v>1.711273193359375E-2</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="4">
         <v>21.94815728368032</v>
       </c>
     </row>
@@ -1445,32 +1616,32 @@
         <v>32.316999075833408</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4">
         <v>0.51535838842391968</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="4">
         <v>0.64698255062103271</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="4">
         <v>-6.0824394226074219E-2</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="4">
         <v>-0.10194161880848029</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="4">
         <v>-5.9695124626159668E-2</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="4">
         <v>23.97392735148318</v>
       </c>
     </row>
@@ -1532,20 +1703,714 @@
         <v>67.9335077941371</v>
       </c>
     </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>0.50819300094346642</v>
+      </c>
+      <c r="E40">
+        <v>7.7135281400969182</v>
+      </c>
+      <c r="F40">
+        <v>9.6395009655864339E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.1032997252149755</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41">
+        <v>0.23744117851317359</v>
+      </c>
+      <c r="E41">
+        <v>0.43012986333060632</v>
+      </c>
+      <c r="F41">
+        <v>0.294737899019623</v>
+      </c>
+      <c r="H41">
+        <v>0.29654718994629448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42">
+        <v>1.626212431732162</v>
+      </c>
+      <c r="E42">
+        <v>42.690294594813757</v>
+      </c>
+      <c r="F42">
+        <v>-5.7473693366838496E-4</v>
+      </c>
+      <c r="H42">
+        <v>2.9859530345267778E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45">
+        <v>14.11915715026403</v>
+      </c>
+      <c r="E45">
+        <v>915.50507831977268</v>
+      </c>
+      <c r="F45">
+        <v>-8.6636558256435459E-2</v>
+      </c>
+      <c r="G45">
+        <v>-0.12875425431288631</v>
+      </c>
+      <c r="H45">
+        <v>-7.9085994071911081E-2</v>
+      </c>
+      <c r="I45">
+        <v>294.69527795905958</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46">
+        <v>18769.114184393071</v>
+      </c>
+      <c r="E46">
+        <v>16421096056.310949</v>
+      </c>
+      <c r="F46">
+        <v>7.8228649902947422E-2</v>
+      </c>
+      <c r="G46">
+        <v>4.2501078193759263E-2</v>
+      </c>
+      <c r="H46">
+        <v>7.8881035737475624E-2</v>
+      </c>
+      <c r="I46">
+        <v>18212.408115484141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47">
+        <v>427.68460009682587</v>
+      </c>
+      <c r="E47">
+        <v>6226334.7697896473</v>
+      </c>
+      <c r="F47">
+        <v>-1.073825442850961</v>
+      </c>
+      <c r="G47">
+        <v>-1.1542062739692149</v>
+      </c>
+      <c r="H47">
+        <v>-1.0625603605989029</v>
+      </c>
+      <c r="I47">
+        <v>2410.912486185337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48">
+        <v>1.0200853773112959</v>
+      </c>
+      <c r="E48">
+        <v>9.0358429211459175</v>
+      </c>
+      <c r="F48">
+        <v>-5.8508195889020793E-2</v>
+      </c>
+      <c r="G48">
+        <v>-9.9535645342083479E-2</v>
+      </c>
+      <c r="H48">
+        <v>-5.8506708897479109E-2</v>
+      </c>
+      <c r="I48">
+        <v>35.777412730202649</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>0.59839757774237323</v>
+      </c>
+      <c r="E49">
+        <v>1.8003866842059131</v>
+      </c>
+      <c r="F49">
+        <v>5.5109077317125547E-2</v>
+      </c>
+      <c r="G49">
+        <v>1.848539814337069E-2</v>
+      </c>
+      <c r="H49">
+        <v>5.8001150556579728E-2</v>
+      </c>
+      <c r="I49">
+        <v>25.448464295684779</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50">
+        <v>0.43508241414476378</v>
+      </c>
+      <c r="E50">
+        <v>0.6010940442844197</v>
+      </c>
+      <c r="F50">
+        <v>1.4416610657462031E-2</v>
+      </c>
+      <c r="G50">
+        <v>-2.3784295906202239E-2</v>
+      </c>
+      <c r="H50">
+        <v>1.469236417461095E-2</v>
+      </c>
+      <c r="I50">
+        <v>27.742405464232959</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="3">
+        <v>4.1914803397758789</v>
+      </c>
+      <c r="E51" s="3">
+        <v>80.329340900012738</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.3249678334205679</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.29880379595624879</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.34525833673067358</v>
+      </c>
+      <c r="I51" s="3">
+        <v>265.96279950251642</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <v>2.9222330393687268</v>
+      </c>
+      <c r="E52">
+        <v>46.808949747209297</v>
+      </c>
+      <c r="F52">
+        <v>-9.7107738983490233E-2</v>
+      </c>
+      <c r="G52">
+        <v>-0.13963129475804431</v>
+      </c>
+      <c r="H52">
+        <v>-8.4503599758988024E-2</v>
+      </c>
+      <c r="I52">
+        <v>82.354468529112935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="3">
+        <v>14.17501116670506</v>
+      </c>
+      <c r="E57" s="3">
+        <v>632.64201492751204</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.2491008974292864</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0.2199962810505767</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0.25236278475514468</v>
+      </c>
+      <c r="I57" s="3">
+        <v>325.43377017647788</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58">
+        <v>17980.836639477449</v>
+      </c>
+      <c r="E58">
+        <v>14621624240.56855</v>
+      </c>
+      <c r="F58">
+        <v>0.17923905501661819</v>
+      </c>
+      <c r="G58">
+        <v>0.14742661528858009</v>
+      </c>
+      <c r="H58">
+        <v>0.1809278942124157</v>
+      </c>
+      <c r="I58">
+        <v>38620.647339467228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59">
+        <v>323.1434362962965</v>
+      </c>
+      <c r="E59">
+        <v>2291012.2634872119</v>
+      </c>
+      <c r="F59">
+        <v>0.23692514174533141</v>
+      </c>
+      <c r="G59">
+        <v>0.20734859685173959</v>
+      </c>
+      <c r="H59">
+        <v>0.24016093540081701</v>
+      </c>
+      <c r="I59">
+        <v>1964.1476241482151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60">
+        <v>0.99212024962029488</v>
+      </c>
+      <c r="E60">
+        <v>8.0983561305268932</v>
+      </c>
+      <c r="F60">
+        <v>5.1314148309287037E-2</v>
+      </c>
+      <c r="G60">
+        <v>1.4543378863910659E-2</v>
+      </c>
+      <c r="H60">
+        <v>5.1354616901889798E-2</v>
+      </c>
+      <c r="I60">
+        <v>34.246190753466607</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61">
+        <v>0.59630926425449982</v>
+      </c>
+      <c r="E61">
+        <v>1.71182502074153</v>
+      </c>
+      <c r="F61">
+        <v>0.10158859898838241</v>
+      </c>
+      <c r="G61">
+        <v>6.6766451662350734E-2</v>
+      </c>
+      <c r="H61">
+        <v>0.10405220050691689</v>
+      </c>
+      <c r="I61">
+        <v>23.84249013362048</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62">
+        <v>0.43915620566690777</v>
+      </c>
+      <c r="E62">
+        <v>0.56096807876729449</v>
+      </c>
+      <c r="F62">
+        <v>8.0209119285774788E-2</v>
+      </c>
+      <c r="G62">
+        <v>4.4558309955766151E-2</v>
+      </c>
+      <c r="H62">
+        <v>8.0858140268385892E-2</v>
+      </c>
+      <c r="I62">
+        <v>25.35100001938013</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63">
+        <v>4.2871126136158306</v>
+      </c>
+      <c r="E63">
+        <v>77.265745652323815</v>
+      </c>
+      <c r="F63">
+        <v>0.35071216686585288</v>
+      </c>
+      <c r="G63">
+        <v>0.32554597178313399</v>
+      </c>
+      <c r="H63">
+        <v>0.36510129219308501</v>
+      </c>
+      <c r="I63">
+        <v>267.47482942528438</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64">
+        <v>2.7396210033477502</v>
+      </c>
+      <c r="E64">
+        <v>41.92482953576615</v>
+      </c>
+      <c r="F64">
+        <v>1.7366226167146781E-2</v>
+      </c>
+      <c r="G64">
+        <v>-2.0720354213971559E-2</v>
+      </c>
+      <c r="H64">
+        <v>2.2725240017287481E-2</v>
+      </c>
+      <c r="I64">
+        <v>87.683828505728371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>25.828060150146481</v>
+      </c>
+      <c r="E67">
+        <v>5578.66162109375</v>
+      </c>
+      <c r="F67">
+        <v>-5.621457576751709</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>15754.41422284988</v>
+      </c>
+      <c r="E68">
+        <v>18044229309.131531</v>
+      </c>
+      <c r="F68">
+        <v>-1.2883278601047991E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>236.035400390625</v>
+      </c>
+      <c r="E69">
+        <v>2810344.25</v>
+      </c>
+      <c r="F69">
+        <v>6.3949525356292725E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>1.05577564239502</v>
+      </c>
+      <c r="E70">
+        <v>9.9377717971801758</v>
+      </c>
+      <c r="F70">
+        <v>-0.1641652584075928</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>0.6355554461479187</v>
+      </c>
+      <c r="E71">
+        <v>1.964951276779175</v>
+      </c>
+      <c r="F71">
+        <v>-3.1258702278137207E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>0.62089592218399048</v>
+      </c>
+      <c r="E72">
+        <v>0.87740147113800049</v>
+      </c>
+      <c r="F72">
+        <v>-0.43863070011138922</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>4.4663486480712891</v>
+      </c>
+      <c r="E73">
+        <v>138.47029113769531</v>
+      </c>
+      <c r="F73">
+        <v>-0.1636084318161011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>3.1275513172149658</v>
+      </c>
+      <c r="E74">
+        <v>54.420196533203118</v>
+      </c>
+      <c r="F74">
+        <v>-0.27550017833709722</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="top10" dxfId="6" priority="4" percent="1" rank="10"/>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="top10" dxfId="6" priority="4" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="top10" dxfId="5" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="top10" dxfId="5" priority="3" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="top10" dxfId="4" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" bottom="1" rank="10"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
